--- a/chat/test1.xlsx
+++ b/chat/test1.xlsx
@@ -1,49 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>타입</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,14 +53,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4286250" cy="4286250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,33 +449,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col width="40.69921875" customWidth="1" min="1" max="1"/>
+    <col width="12.69921875" customWidth="1" min="2" max="2"/>
+    <col width="60.69921875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>타입</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9월15일 9:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9월15일 11:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9월15일 21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>테스트 중입니다</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9월15일 21:28</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chat/test1.xlsx
+++ b/chat/test1.xlsx
@@ -3,32 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -128,41 +121,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4286250" cy="4286250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,17 +412,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40.69921875" customWidth="1" min="1" max="1"/>
-    <col width="12.69921875" customWidth="1" min="2" max="2"/>
-    <col width="60.69921875" customWidth="1" min="3" max="3"/>
+    <col width="40.7109375" customWidth="1" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" min="2" max="2"/>
+    <col width="60.7109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -488,6 +446,26 @@
           <t>date</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>WR_PNAME</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>WR_PRICE</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>WR_TAG</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>WR_MEMO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9월15일 9:40</t>
+          <t>9월16일 12:40</t>
         </is>
       </c>
     </row>
@@ -517,69 +495,38 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9월15일 11:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>안녕하세요</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9월15일 21:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>테스트 중입니다</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9월15일 21:28</t>
+          <t>9월16일 12:41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>49999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>